--- a/2024/nuno-dataset/test-oxigen/content/results/metrics_12_0.xlsx
+++ b/2024/nuno-dataset/test-oxigen/content/results/metrics_12_0.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I26"/>
+  <dimension ref="A1:I25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -482,369 +482,369 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.1260045020912615</v>
+        <v>-0.1358038198910239</v>
       </c>
       <c r="C2" t="n">
-        <v>-0.08729103420926054</v>
+        <v>-0.737099494975237</v>
       </c>
       <c r="D2" t="n">
-        <v>0.3991606114427774</v>
+        <v>-0.7385932846899437</v>
       </c>
       <c r="E2" t="n">
-        <v>0.05232592826817495</v>
+        <v>-0.7129251277333457</v>
       </c>
       <c r="F2" t="n">
-        <v>0.9672554731369019</v>
+        <v>1.257000207901001</v>
       </c>
       <c r="G2" t="n">
-        <v>1.776947617530823</v>
+        <v>2.146814584732056</v>
       </c>
       <c r="H2" t="n">
-        <v>0.4193220138549805</v>
+        <v>1.000275254249573</v>
       </c>
       <c r="I2" t="n">
-        <v>1.138064742088318</v>
+        <v>1.607266783714294</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>model_12_0_1</t>
+          <t>model_12_0_23</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.5344715694541659</v>
+        <v>0.03258831475910329</v>
       </c>
       <c r="C3" t="n">
-        <v>0.1120724948163225</v>
+        <v>-1.442879260315176</v>
       </c>
       <c r="D3" t="n">
-        <v>0.8822378797724791</v>
+        <v>-1.425437634459964</v>
       </c>
       <c r="E3" t="n">
-        <v>0.3280718302717203</v>
+        <v>-1.403244618808951</v>
       </c>
       <c r="F3" t="n">
-        <v>0.5152028203010559</v>
+        <v>1.070639729499817</v>
       </c>
       <c r="G3" t="n">
-        <v>1.451130151748657</v>
+        <v>3.019060850143433</v>
       </c>
       <c r="H3" t="n">
-        <v>0.08218544721603394</v>
+        <v>1.39544141292572</v>
       </c>
       <c r="I3" t="n">
-        <v>0.80692058801651</v>
+        <v>2.2550048828125</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>model_12_0_2</t>
+          <t>model_12_0_22</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.6961648793669122</v>
+        <v>0.03360754403340394</v>
       </c>
       <c r="C4" t="n">
-        <v>0.179136952410069</v>
+        <v>-1.438820858020111</v>
       </c>
       <c r="D4" t="n">
-        <v>0.6656095012811043</v>
+        <v>-1.418631626254077</v>
       </c>
       <c r="E4" t="n">
-        <v>0.3171463994785698</v>
+        <v>-1.39845102364478</v>
       </c>
       <c r="F4" t="n">
-        <v>0.3362559676170349</v>
+        <v>1.069511651992798</v>
       </c>
       <c r="G4" t="n">
-        <v>1.341527342796326</v>
+        <v>3.014045238494873</v>
       </c>
       <c r="H4" t="n">
-        <v>0.2333690226078033</v>
+        <v>1.391525745391846</v>
       </c>
       <c r="I4" t="n">
-        <v>0.8200410008430481</v>
+        <v>2.250507354736328</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>model_12_0_3</t>
+          <t>model_12_0_21</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.7062660036687107</v>
+        <v>0.03465496075421703</v>
       </c>
       <c r="C5" t="n">
-        <v>0.1989613728262145</v>
+        <v>-1.434619867369574</v>
       </c>
       <c r="D5" t="n">
-        <v>0.5696566329495116</v>
+        <v>-1.411759726397404</v>
       </c>
       <c r="E5" t="n">
-        <v>0.3051881226817018</v>
+        <v>-1.393538598849687</v>
       </c>
       <c r="F5" t="n">
-        <v>0.3250769972801208</v>
+        <v>1.068352580070496</v>
       </c>
       <c r="G5" t="n">
-        <v>1.309128522872925</v>
+        <v>3.008853197097778</v>
       </c>
       <c r="H5" t="n">
-        <v>0.3003339171409607</v>
+        <v>1.387572050094604</v>
       </c>
       <c r="I5" t="n">
-        <v>0.8344017267227173</v>
+        <v>2.245897769927979</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>model_12_0_4</t>
+          <t>model_12_0_20</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.7177892375022005</v>
+        <v>0.03572753993838573</v>
       </c>
       <c r="C6" t="n">
-        <v>0.2158633782256021</v>
+        <v>-1.430288633034875</v>
       </c>
       <c r="D6" t="n">
-        <v>0.1707924590082976</v>
+        <v>-1.404873947111576</v>
       </c>
       <c r="E6" t="n">
-        <v>0.2082849266948784</v>
+        <v>-1.388531748994716</v>
       </c>
       <c r="F6" t="n">
-        <v>0.3123241364955902</v>
+        <v>1.067165374755859</v>
       </c>
       <c r="G6" t="n">
-        <v>1.281505703926086</v>
+        <v>3.003500699996948</v>
       </c>
       <c r="H6" t="n">
-        <v>0.5786986947059631</v>
+        <v>1.383610367774963</v>
       </c>
       <c r="I6" t="n">
-        <v>0.9507730007171631</v>
+        <v>2.241199970245361</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>model_12_0_5</t>
+          <t>model_12_0_19</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.7301779468004328</v>
+        <v>0.03682737207193176</v>
       </c>
       <c r="C7" t="n">
-        <v>0.2538760319349964</v>
+        <v>-1.425764242675171</v>
       </c>
       <c r="D7" t="n">
-        <v>0.1670299779985727</v>
+        <v>-1.398480670193544</v>
       </c>
       <c r="E7" t="n">
-        <v>0.2346429563975406</v>
+        <v>-1.383532160546695</v>
       </c>
       <c r="F7" t="n">
-        <v>0.2986135184764862</v>
+        <v>1.065948247909546</v>
       </c>
       <c r="G7" t="n">
-        <v>1.219381928443909</v>
+        <v>2.9979088306427</v>
       </c>
       <c r="H7" t="n">
-        <v>0.5813245177268982</v>
+        <v>1.379932165145874</v>
       </c>
       <c r="I7" t="n">
-        <v>0.919119656085968</v>
+        <v>2.236508846282959</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>model_12_0_6</t>
+          <t>model_12_0_18</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.7394161648010582</v>
+        <v>0.03798159776581833</v>
       </c>
       <c r="C8" t="n">
-        <v>0.3071855297444134</v>
+        <v>-1.420888401619913</v>
       </c>
       <c r="D8" t="n">
-        <v>0.02789931426190284</v>
+        <v>-1.392584865900811</v>
       </c>
       <c r="E8" t="n">
-        <v>0.2350013979358221</v>
+        <v>-1.378431119113659</v>
       </c>
       <c r="F8" t="n">
-        <v>0.2883895337581635</v>
+        <v>1.06467080116272</v>
       </c>
       <c r="G8" t="n">
-        <v>1.132258892059326</v>
+        <v>2.991882801055908</v>
       </c>
       <c r="H8" t="n">
-        <v>0.6784229278564453</v>
+        <v>1.376539945602417</v>
       </c>
       <c r="I8" t="n">
-        <v>0.9186891317367554</v>
+        <v>2.231722354888916</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>model_12_0_7</t>
+          <t>model_12_0_17</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.7461550278682055</v>
+        <v>0.03924164540156794</v>
       </c>
       <c r="C9" t="n">
-        <v>0.3579726939962198</v>
+        <v>-1.415584857124467</v>
       </c>
       <c r="D9" t="n">
-        <v>-0.05528150715066316</v>
+        <v>-1.385940825140553</v>
       </c>
       <c r="E9" t="n">
-        <v>0.248843715532353</v>
+        <v>-1.372815970115369</v>
       </c>
       <c r="F9" t="n">
-        <v>0.2809315919876099</v>
+        <v>1.063276290893555</v>
       </c>
       <c r="G9" t="n">
-        <v>1.04925799369812</v>
+        <v>2.985328674316406</v>
       </c>
       <c r="H9" t="n">
-        <v>0.7364742755889893</v>
+        <v>1.372717499732971</v>
       </c>
       <c r="I9" t="n">
-        <v>0.9020658731460571</v>
+        <v>2.226453542709351</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>model_12_0_8</t>
+          <t>model_12_0_16</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.7574715669576541</v>
+        <v>0.04063134755311693</v>
       </c>
       <c r="C10" t="n">
-        <v>0.4002316471054899</v>
+        <v>-1.409976356913135</v>
       </c>
       <c r="D10" t="n">
-        <v>-0.04699576373958148</v>
+        <v>-1.377671817131423</v>
       </c>
       <c r="E10" t="n">
-        <v>0.2815561696769626</v>
+        <v>-1.36651928160785</v>
       </c>
       <c r="F10" t="n">
-        <v>0.2684075236320496</v>
+        <v>1.06173837184906</v>
       </c>
       <c r="G10" t="n">
-        <v>0.980194628238678</v>
+        <v>2.978397130966187</v>
       </c>
       <c r="H10" t="n">
-        <v>0.7306917905807495</v>
+        <v>1.367959976196289</v>
       </c>
       <c r="I10" t="n">
-        <v>0.8627814650535583</v>
+        <v>2.220545053482056</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>model_12_0_9</t>
+          <t>model_12_0_15</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.7693046434630377</v>
+        <v>0.04366143788740329</v>
       </c>
       <c r="C11" t="n">
-        <v>0.4429570768058383</v>
+        <v>-1.398612912476632</v>
       </c>
       <c r="D11" t="n">
-        <v>-0.03028685722289226</v>
+        <v>-1.354717508261724</v>
       </c>
       <c r="E11" t="n">
-        <v>0.3169078811073263</v>
+        <v>-1.351972396634954</v>
       </c>
       <c r="F11" t="n">
-        <v>0.2553117871284485</v>
+        <v>1.058384895324707</v>
       </c>
       <c r="G11" t="n">
-        <v>0.9103690385818481</v>
+        <v>2.964353561401367</v>
       </c>
       <c r="H11" t="n">
-        <v>0.7190307378768921</v>
+        <v>1.354753613471985</v>
       </c>
       <c r="I11" t="n">
-        <v>0.8203274607658386</v>
+        <v>2.206895589828491</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>model_12_0_10</t>
+          <t>model_12_0_14</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.7764279349022266</v>
+        <v>0.04639370565280976</v>
       </c>
       <c r="C12" t="n">
-        <v>0.469716213084458</v>
+        <v>-1.387513316717293</v>
       </c>
       <c r="D12" t="n">
-        <v>-0.02297405576472755</v>
+        <v>-1.337676781964104</v>
       </c>
       <c r="E12" t="n">
-        <v>0.3381870346027851</v>
+        <v>-1.339315413458546</v>
       </c>
       <c r="F12" t="n">
-        <v>0.2474283874034882</v>
+        <v>1.055361151695251</v>
       </c>
       <c r="G12" t="n">
-        <v>0.8666368722915649</v>
+        <v>2.950636148452759</v>
       </c>
       <c r="H12" t="n">
-        <v>0.713927149772644</v>
+        <v>1.34494948387146</v>
       </c>
       <c r="I12" t="n">
-        <v>0.7947732210159302</v>
+        <v>2.195019245147705</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>model_12_0_11</t>
+          <t>model_12_0_13</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.7856871493984572</v>
+        <v>0.05080809512079898</v>
       </c>
       <c r="C13" t="n">
-        <v>0.4967821794687503</v>
+        <v>-1.369091374908458</v>
       </c>
       <c r="D13" t="n">
-        <v>0.007544365721285251</v>
+        <v>-1.311577013759429</v>
       </c>
       <c r="E13" t="n">
-        <v>0.3660332115794477</v>
+        <v>-1.318938841084485</v>
       </c>
       <c r="F13" t="n">
-        <v>0.2371811866760254</v>
+        <v>1.050475835800171</v>
       </c>
       <c r="G13" t="n">
-        <v>0.8224033117294312</v>
+        <v>2.927869081497192</v>
       </c>
       <c r="H13" t="n">
-        <v>0.6926285028457642</v>
+        <v>1.329933285713196</v>
       </c>
       <c r="I13" t="n">
-        <v>0.7613326907157898</v>
+        <v>2.175899505615234</v>
       </c>
     </row>
     <row r="14">
@@ -854,400 +854,369 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.7896928194702404</v>
+        <v>0.05765007860785487</v>
       </c>
       <c r="C14" t="n">
-        <v>0.506248830983463</v>
+        <v>-1.339127345614866</v>
       </c>
       <c r="D14" t="n">
-        <v>0.02636845347359951</v>
+        <v>-1.274356659165706</v>
       </c>
       <c r="E14" t="n">
-        <v>0.3780013027699396</v>
+        <v>-1.287305590334351</v>
       </c>
       <c r="F14" t="n">
-        <v>0.2327480763196945</v>
+        <v>1.042903661727905</v>
       </c>
       <c r="G14" t="n">
-        <v>0.8069320917129517</v>
+        <v>2.890837669372559</v>
       </c>
       <c r="H14" t="n">
-        <v>0.6794913411140442</v>
+        <v>1.308519124984741</v>
       </c>
       <c r="I14" t="n">
-        <v>0.7469601631164551</v>
+        <v>2.146217584609985</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>model_12_0_13</t>
+          <t>model_12_0_11</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.7985021444205606</v>
+        <v>0.06455591439513142</v>
       </c>
       <c r="C15" t="n">
-        <v>0.5354690608689268</v>
+        <v>-1.309961250715151</v>
       </c>
       <c r="D15" t="n">
-        <v>0.04613970410007051</v>
+        <v>-1.231743120010019</v>
       </c>
       <c r="E15" t="n">
-        <v>0.404460435689951</v>
+        <v>-1.254672488085743</v>
       </c>
       <c r="F15" t="n">
-        <v>0.2229987531900406</v>
+        <v>1.035260915756226</v>
       </c>
       <c r="G15" t="n">
-        <v>0.7591776847839355</v>
+        <v>2.854792594909668</v>
       </c>
       <c r="H15" t="n">
-        <v>0.6656930446624756</v>
+        <v>1.284002065658569</v>
       </c>
       <c r="I15" t="n">
-        <v>0.715185284614563</v>
+        <v>2.115597248077393</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>model_12_0_14</t>
+          <t>model_12_0_10</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.8003134673494977</v>
+        <v>0.07332995286323918</v>
       </c>
       <c r="C16" t="n">
-        <v>0.5425661054602449</v>
+        <v>-1.270552062811575</v>
       </c>
       <c r="D16" t="n">
-        <v>0.04672815208246239</v>
+        <v>-1.18629818216301</v>
       </c>
       <c r="E16" t="n">
-        <v>0.4097349328018486</v>
+        <v>-1.214079919300428</v>
       </c>
       <c r="F16" t="n">
-        <v>0.220994159579277</v>
+        <v>1.025550603866577</v>
       </c>
       <c r="G16" t="n">
-        <v>0.7475790977478027</v>
+        <v>2.806087970733643</v>
       </c>
       <c r="H16" t="n">
-        <v>0.6652823686599731</v>
+        <v>1.257855892181396</v>
       </c>
       <c r="I16" t="n">
-        <v>0.708851158618927</v>
+        <v>2.077508926391602</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>model_12_0_15</t>
+          <t>model_12_0_9</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.8049448522706117</v>
+        <v>0.07671670308132283</v>
       </c>
       <c r="C17" t="n">
-        <v>0.5546147216757775</v>
+        <v>-1.253584371378263</v>
       </c>
       <c r="D17" t="n">
-        <v>0.06524580855518836</v>
+        <v>-1.153693389460128</v>
       </c>
       <c r="E17" t="n">
-        <v>0.4234795004183001</v>
+        <v>-1.192840391670041</v>
       </c>
       <c r="F17" t="n">
-        <v>0.2158685773611069</v>
+        <v>1.021802544593811</v>
       </c>
       <c r="G17" t="n">
-        <v>0.7278881669044495</v>
+        <v>2.785118579864502</v>
       </c>
       <c r="H17" t="n">
-        <v>0.6523590087890625</v>
+        <v>1.239097118377686</v>
       </c>
       <c r="I17" t="n">
-        <v>0.6923452019691467</v>
+        <v>2.057579278945923</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>model_12_0_16</t>
+          <t>model_12_0_2</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.8168214004152334</v>
+        <v>0.07988313780032585</v>
       </c>
       <c r="C18" t="n">
-        <v>0.5818229860452208</v>
+        <v>-1.061156548177444</v>
       </c>
       <c r="D18" t="n">
-        <v>0.1224795904197945</v>
+        <v>-0.9765742014728127</v>
       </c>
       <c r="E18" t="n">
-        <v>0.4587345353633355</v>
+        <v>-1.007555474918414</v>
       </c>
       <c r="F18" t="n">
-        <v>0.2027247250080109</v>
+        <v>1.018298268318176</v>
       </c>
       <c r="G18" t="n">
-        <v>0.6834219694137573</v>
+        <v>2.547304391860962</v>
       </c>
       <c r="H18" t="n">
-        <v>0.6124159693717957</v>
+        <v>1.137194156646729</v>
       </c>
       <c r="I18" t="n">
-        <v>0.6500073671340942</v>
+        <v>1.883723258972168</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>model_12_0_17</t>
+          <t>model_12_0_8</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.8261105890478759</v>
+        <v>0.08052912847130733</v>
       </c>
       <c r="C19" t="n">
-        <v>0.612329077925277</v>
+        <v>-1.235445075250986</v>
       </c>
       <c r="D19" t="n">
-        <v>0.1426662527661495</v>
+        <v>-1.138884225921873</v>
       </c>
       <c r="E19" t="n">
-        <v>0.4862337769991815</v>
+        <v>-1.175919031062208</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1924443393945694</v>
+        <v>1.017583250999451</v>
       </c>
       <c r="G19" t="n">
-        <v>0.6335662007331848</v>
+        <v>2.762700796127319</v>
       </c>
       <c r="H19" t="n">
-        <v>0.5983278751373291</v>
+        <v>1.230576992034912</v>
       </c>
       <c r="I19" t="n">
-        <v>0.6169834136962891</v>
+        <v>2.041701793670654</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>model_12_0_18</t>
+          <t>model_12_0_7</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.8289937319536096</v>
+        <v>0.08119871015771307</v>
       </c>
       <c r="C20" t="n">
-        <v>0.622199877332132</v>
+        <v>-1.228424142079101</v>
       </c>
       <c r="D20" t="n">
-        <v>0.1461778381332763</v>
+        <v>-1.13877244505624</v>
       </c>
       <c r="E20" t="n">
-        <v>0.4943057006328954</v>
+        <v>-1.170991244401677</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1892535388469696</v>
+        <v>1.016842246055603</v>
       </c>
       <c r="G20" t="n">
-        <v>0.6174345016479492</v>
+        <v>2.754023790359497</v>
       </c>
       <c r="H20" t="n">
-        <v>0.5958771109580994</v>
+        <v>1.230512619018555</v>
       </c>
       <c r="I20" t="n">
-        <v>0.6072897911071777</v>
+        <v>2.037077903747559</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>model_12_0_19</t>
+          <t>model_12_0_6</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.8329476828055657</v>
+        <v>0.08683375296157547</v>
       </c>
       <c r="C21" t="n">
-        <v>0.6389409251587668</v>
+        <v>-1.194309627843353</v>
       </c>
       <c r="D21" t="n">
-        <v>0.1437533499885335</v>
+        <v>-1.111964542785348</v>
       </c>
       <c r="E21" t="n">
-        <v>0.5057039447431806</v>
+        <v>-1.139468299152865</v>
       </c>
       <c r="F21" t="n">
-        <v>0.1848776787519455</v>
+        <v>1.010605931282043</v>
       </c>
       <c r="G21" t="n">
-        <v>0.5900748372077942</v>
+        <v>2.711863279342651</v>
       </c>
       <c r="H21" t="n">
-        <v>0.5975691080093384</v>
+        <v>1.215089082717896</v>
       </c>
       <c r="I21" t="n">
-        <v>0.5936017036437988</v>
+        <v>2.007499217987061</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>model_12_0_20</t>
+          <t>model_12_0_5</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.833789449897856</v>
+        <v>0.08692879707774848</v>
       </c>
       <c r="C22" t="n">
-        <v>0.6390860489734871</v>
+        <v>-1.142556205037639</v>
       </c>
       <c r="D22" t="n">
-        <v>0.1503720926795186</v>
+        <v>-1.153878788249778</v>
       </c>
       <c r="E22" t="n">
-        <v>0.5076187047419651</v>
+        <v>-1.115474937483443</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1839461028575897</v>
+        <v>1.01050078868866</v>
       </c>
       <c r="G22" t="n">
-        <v>0.5898376703262329</v>
+        <v>2.647902965545654</v>
       </c>
       <c r="H22" t="n">
-        <v>0.5929499864578247</v>
+        <v>1.239203929901123</v>
       </c>
       <c r="I22" t="n">
-        <v>0.591302216053009</v>
+        <v>1.984986066818237</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>model_12_0_21</t>
+          <t>model_12_0_4</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.8352777057527843</v>
+        <v>0.0884316081703963</v>
       </c>
       <c r="C23" t="n">
-        <v>0.6481062810882084</v>
+        <v>-1.127992885851564</v>
       </c>
       <c r="D23" t="n">
-        <v>0.141660652342546</v>
+        <v>-1.13477582919973</v>
       </c>
       <c r="E23" t="n">
-        <v>0.5117350697864194</v>
+        <v>-1.099808123254763</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1822990328073502</v>
+        <v>1.008837699890137</v>
       </c>
       <c r="G23" t="n">
-        <v>0.5750959515571594</v>
+        <v>2.629904747009277</v>
       </c>
       <c r="H23" t="n">
-        <v>0.5990296602249146</v>
+        <v>1.228213310241699</v>
       </c>
       <c r="I23" t="n">
-        <v>0.5863588452339172</v>
+        <v>1.970285534858704</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>model_12_0_22</t>
+          <t>model_12_0_3</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.8394978755164714</v>
+        <v>0.1265698161120716</v>
       </c>
       <c r="C24" t="n">
-        <v>0.6641217473256371</v>
+        <v>-0.9919137749496807</v>
       </c>
       <c r="D24" t="n">
-        <v>0.1449764328438933</v>
+        <v>-0.8198425067634416</v>
       </c>
       <c r="E24" t="n">
-        <v>0.524180336468784</v>
+        <v>-0.9140489823196181</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1776285469532013</v>
+        <v>0.9666298627853394</v>
       </c>
       <c r="G24" t="n">
-        <v>0.548922061920166</v>
+        <v>2.461730003356934</v>
       </c>
       <c r="H24" t="n">
-        <v>0.5967155694961548</v>
+        <v>1.047020792961121</v>
       </c>
       <c r="I24" t="n">
-        <v>0.5714133381843567</v>
+        <v>1.795984625816345</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>model_12_0_23</t>
+          <t>model_12_0_1</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.8423736828208541</v>
+        <v>0.174629113481016</v>
       </c>
       <c r="C25" t="n">
-        <v>0.6775086126384116</v>
+        <v>-0.6498254584078758</v>
       </c>
       <c r="D25" t="n">
-        <v>0.1408231423817667</v>
+        <v>-0.4100896396978513</v>
       </c>
       <c r="E25" t="n">
-        <v>0.5326896103921681</v>
+        <v>-0.5572818313510248</v>
       </c>
       <c r="F25" t="n">
-        <v>0.1744458824396133</v>
+        <v>0.9134424328804016</v>
       </c>
       <c r="G25" t="n">
-        <v>0.5270440578460693</v>
+        <v>2.038956165313721</v>
       </c>
       <c r="H25" t="n">
-        <v>0.599614143371582</v>
+        <v>0.8112752437591553</v>
       </c>
       <c r="I25" t="n">
-        <v>0.5611944198608398</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="1" t="inlineStr">
-        <is>
-          <t>model_12_0_24</t>
-        </is>
-      </c>
-      <c r="B26" t="n">
-        <v>0.8425897433945758</v>
-      </c>
-      <c r="C26" t="n">
-        <v>0.6802650750536511</v>
-      </c>
-      <c r="D26" t="n">
-        <v>0.13549337564764</v>
-      </c>
-      <c r="E26" t="n">
-        <v>0.5332178622175942</v>
-      </c>
-      <c r="F26" t="n">
-        <v>0.1742067635059357</v>
-      </c>
-      <c r="G26" t="n">
-        <v>0.5225391983985901</v>
-      </c>
-      <c r="H26" t="n">
-        <v>0.6033337116241455</v>
-      </c>
-      <c r="I26" t="n">
-        <v>0.5605600476264954</v>
+        <v>1.461223959922791</v>
       </c>
     </row>
   </sheetData>
